--- a/Dokumentation/Paarvergleich_Nutzwertanalysen.xlsx
+++ b/Dokumentation/Paarvergleich_Nutzwertanalysen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shampl\Documents\E-Kart_Option1\Bachelorarbeit Option 1\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4725729E-9B3D-45BB-8DAC-6A6D2DB05B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A8F4E3-A5BE-4E94-AB2C-5769A5C25719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2790" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2BB3BA06-223D-4901-A03F-E5E890D55EE8}"/>
+    <workbookView xWindow="-28920" yWindow="-2790" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{2BB3BA06-223D-4901-A03F-E5E890D55EE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="66">
   <si>
     <t>Nutzwertanalyse</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Reichweite</t>
-  </si>
-  <si>
-    <t>Nutzerfreundlichekit</t>
   </si>
   <si>
     <t>Energieverbrauch</t>
@@ -194,6 +191,61 @@
   </si>
   <si>
     <t>Konzept 4</t>
+  </si>
+  <si>
+    <t>Nutzerfreundlichkeit</t>
+  </si>
+  <si>
+    <t>Darstellung</t>
+  </si>
+  <si>
+    <t>Bedienbarkeit</t>
+  </si>
+  <si>
+    <t>Größe</t>
+  </si>
+  <si>
+    <t>Kosten des gesamtmoduls</t>
+  </si>
+  <si>
+    <t>Entwicklungsaufwand für Anzeige und Kommunikation</t>
+  </si>
+  <si>
+    <t>gesamter bauraum für Display und Eingabemöglichkeiten</t>
+  </si>
+  <si>
+    <t>Stromverbrauch des Displays</t>
+  </si>
+  <si>
+    <t>Möglichkeit zur farbigen und graphischen Darstellung von Daten</t>
+  </si>
+  <si>
+    <t>Einfache Eingabemöglichkeiten für den Nutzer</t>
+  </si>
+  <si>
+    <t>Tatsächliche Größe des Displays</t>
+  </si>
+  <si>
+    <t>Monocromes 
+LCD Display</t>
+  </si>
+  <si>
+    <t>OLED Display</t>
+  </si>
+  <si>
+    <t>TFT-LCD Display</t>
+  </si>
+  <si>
+    <t>RFID-Reader mit CAN-Interface</t>
+  </si>
+  <si>
+    <t>RFID-Aufsteckmodul</t>
+  </si>
+  <si>
+    <t>Erkennt Desfire EV3 Karten</t>
+  </si>
+  <si>
+    <t>Verschlüsselung</t>
   </si>
 </sst>
 </file>
@@ -323,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="88">
+  <borders count="120">
     <border>
       <left/>
       <right/>
@@ -1480,11 +1532,427 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1766,25 +2234,34 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1811,6 +2288,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1829,28 +2312,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1877,11 +2345,116 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="95" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="100" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="102" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="103" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="104" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="118" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2240,11 +2813,11 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="130">
+      <c r="G1" s="111">
         <v>0</v>
       </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="132"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="113"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -2253,10 +2826,10 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="128" t="s">
+      <c r="R1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="129"/>
+      <c r="S1" s="108"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -2273,16 +2846,16 @@
     </row>
     <row r="2" spans="1:32" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="129"/>
+      <c r="C2" s="108"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="135"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="116"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -2325,24 +2898,24 @@
       <c r="O3" s="2"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="122" t="s">
+      <c r="R3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="124" t="s">
+      <c r="S3" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="126" t="s">
+      <c r="T3" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="127"/>
-      <c r="V3" s="120"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="120"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="121"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="124"/>
+      <c r="Z3" s="123"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="123"/>
+      <c r="AC3" s="124"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
@@ -2376,8 +2949,8 @@
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="123"/>
-      <c r="S4" s="125"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="130"/>
       <c r="T4" s="6" t="s">
         <v>7</v>
       </c>
@@ -2513,7 +3086,7 @@
       <c r="AF6" s="1"/>
     </row>
     <row r="7" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="107">
+      <c r="A7" s="133">
         <v>2</v>
       </c>
       <c r="B7" s="31"/>
@@ -2565,7 +3138,7 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="108"/>
+      <c r="A8" s="134"/>
       <c r="B8" s="31"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -2615,7 +3188,7 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="108"/>
+      <c r="A9" s="134"/>
       <c r="B9" s="31"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -2665,7 +3238,7 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="108"/>
+      <c r="A10" s="134"/>
       <c r="B10" s="31"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -2715,7 +3288,7 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="109"/>
+      <c r="A11" s="135"/>
       <c r="B11" s="31"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -2938,26 +3511,26 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="22"/>
       <c r="S15" s="23"/>
-      <c r="T15" s="110" t="e">
+      <c r="T15" s="125" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="U15" s="111"/>
-      <c r="V15" s="110" t="e">
+      <c r="U15" s="126"/>
+      <c r="V15" s="125" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="W15" s="111"/>
-      <c r="X15" s="110" t="e">
+      <c r="W15" s="126"/>
+      <c r="X15" s="125" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="Y15" s="111"/>
-      <c r="Z15" s="110" t="e">
+      <c r="Y15" s="126"/>
+      <c r="Z15" s="125" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AA15" s="111"/>
-      <c r="AB15" s="110" t="e">
+      <c r="AA15" s="126"/>
+      <c r="AB15" s="125" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AC15" s="111"/>
+      <c r="AC15" s="126"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
@@ -2982,62 +3555,62 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="22"/>
       <c r="S16" s="23"/>
-      <c r="T16" s="112" t="e">
+      <c r="T16" s="109" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="U16" s="113"/>
-      <c r="V16" s="112" t="e">
+      <c r="U16" s="110"/>
+      <c r="V16" s="109" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="W16" s="113"/>
-      <c r="X16" s="112" t="e">
+      <c r="W16" s="110"/>
+      <c r="X16" s="109" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="Y16" s="113"/>
-      <c r="Z16" s="112" t="e">
+      <c r="Y16" s="110"/>
+      <c r="Z16" s="109" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AA16" s="113"/>
-      <c r="AB16" s="112" t="e">
+      <c r="AA16" s="110"/>
+      <c r="AB16" s="109" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AC16" s="113"/>
+      <c r="AC16" s="110"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="1:32" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="116"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="119"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="117" t="s">
+      <c r="R17" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="S17" s="118"/>
-      <c r="T17" s="118"/>
-      <c r="U17" s="118"/>
-      <c r="V17" s="118"/>
-      <c r="W17" s="118"/>
-      <c r="X17" s="118"/>
-      <c r="Y17" s="118"/>
-      <c r="Z17" s="118"/>
-      <c r="AA17" s="119"/>
+      <c r="S17" s="121"/>
+      <c r="T17" s="121"/>
+      <c r="U17" s="121"/>
+      <c r="V17" s="121"/>
+      <c r="W17" s="121"/>
+      <c r="X17" s="121"/>
+      <c r="Y17" s="121"/>
+      <c r="Z17" s="121"/>
+      <c r="AA17" s="122"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
@@ -36468,12 +37041,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
     <mergeCell ref="Z16:AA16"/>
     <mergeCell ref="AB16:AC16"/>
     <mergeCell ref="B17:K17"/>
@@ -36486,11 +37058,12 @@
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="G1:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -37335,12 +37908,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y15:Z15"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="U14:V14"/>
     <mergeCell ref="U15:V15"/>
@@ -37349,6 +37916,12 @@
     <mergeCell ref="S14:T14"/>
     <mergeCell ref="S15:T15"/>
     <mergeCell ref="S2:T2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37358,8 +37931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCFDDF3-4B01-40D6-A6E3-5377BDF21FCB}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37395,15 +37968,15 @@
       </c>
       <c r="T2" s="137"/>
       <c r="U2" s="136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V2" s="137"/>
       <c r="W2" s="136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X2" s="137"/>
       <c r="Y2" s="136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z2" s="137"/>
     </row>
@@ -37525,7 +38098,7 @@
         <v>0.1</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="79" t="str">
         <f>IF(ISBLANK(B4),"",B4)</f>
@@ -37567,7 +38140,7 @@
     <row r="5" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="142"/>
       <c r="B5" s="105" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="52">
         <f>IF(ISBLANK(D4),"",ABS(D4-2))</f>
@@ -37597,7 +38170,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="80" t="str">
         <f t="shared" ref="Q5:Q13" si="4">IF(ISBLANK(B5),"",B5)</f>
@@ -37639,7 +38212,7 @@
     <row r="6" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="142"/>
       <c r="B6" s="105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="52">
         <f>IF(ISBLANK(E4),"",ABS(E4-2))</f>
@@ -37670,7 +38243,7 @@
         <v>0.4</v>
       </c>
       <c r="O6" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="80" t="str">
         <f t="shared" si="4"/>
@@ -37712,7 +38285,7 @@
     <row r="7" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="142"/>
       <c r="B7" s="105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="60">
         <f>IF(ISBLANK(F4),"",ABS(F4-2))</f>
@@ -37744,7 +38317,7 @@
         <v>0.25</v>
       </c>
       <c r="O7" s="77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="80" t="str">
         <f t="shared" si="4"/>
@@ -37786,7 +38359,7 @@
     <row r="8" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="142"/>
       <c r="B8" s="105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="61">
         <f>IF(ISBLANK(G4),"",ABS(G4-2))</f>
@@ -37819,7 +38392,7 @@
         <v>0.25</v>
       </c>
       <c r="O8" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="80" t="str">
         <f t="shared" si="4"/>
@@ -38272,20 +38845,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:Z14"/>
     <mergeCell ref="A4:A13"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38295,8 +38868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF6A10E-1BE4-4762-8FF8-FF061CB84A09}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38312,35 +38885,35 @@
       <c r="B2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="144">
+      <c r="C2" s="145">
         <v>0</v>
       </c>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
       <c r="Q2" s="39" t="s">
         <v>0</v>
       </c>
       <c r="S2" s="136" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="146"/>
+      <c r="U2" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="137"/>
-      <c r="U2" s="136" t="s">
+      <c r="V2" s="158"/>
+      <c r="W2" s="146" t="s">
         <v>41</v>
-      </c>
-      <c r="V2" s="137"/>
-      <c r="W2" s="136" t="s">
-        <v>42</v>
       </c>
       <c r="X2" s="137"/>
       <c r="Y2" s="136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z2" s="137"/>
     </row>
@@ -38366,7 +38939,7 @@
       </c>
       <c r="G3" s="46" t="str">
         <f>IF(ISBLANK($B8),"",$B8)</f>
-        <v>Nutzerfreundlichekit</v>
+        <v>Nutzerfreundlichkeit</v>
       </c>
       <c r="H3" s="45" t="str">
         <f>IF(ISBLANK($B9),"",$B9)</f>
@@ -38406,16 +38979,16 @@
       <c r="S3" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="86" t="s">
+      <c r="T3" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="85" t="s">
+      <c r="U3" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="86" t="s">
+      <c r="V3" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="W3" s="85" t="s">
+      <c r="W3" s="153" t="s">
         <v>7</v>
       </c>
       <c r="X3" s="86" t="s">
@@ -38429,7 +39002,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="145">
+      <c r="A4" s="144">
         <v>2</v>
       </c>
       <c r="B4" s="41" t="s">
@@ -38464,18 +39037,18 @@
         <v>0</v>
       </c>
       <c r="M4" s="68">
-        <f>SUM(C4:L4)</f>
+        <f t="shared" ref="M4:M13" si="0">SUM(C4:L4)</f>
         <v>11</v>
       </c>
       <c r="N4" s="69">
-        <f>M4/$M$14</f>
+        <f t="shared" ref="N4:N13" si="1">M4/$M$14</f>
         <v>0.12222222222222222</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="79" t="str">
-        <f>IF(ISBLANK(B4),"",B4)</f>
+        <f t="shared" ref="Q4:Q13" si="2">IF(ISBLANK(B4),"",B4)</f>
         <v>Übertragungsrate</v>
       </c>
       <c r="R4" s="33">
@@ -38483,20 +39056,20 @@
         <v>0.12222222222222222</v>
       </c>
       <c r="S4" s="87">
-        <v>1</v>
-      </c>
-      <c r="T4" s="82">
+        <v>2</v>
+      </c>
+      <c r="T4" s="148">
         <f>S4*$R$4</f>
-        <v>0.12222222222222222</v>
-      </c>
-      <c r="U4" s="87">
+        <v>0.24444444444444444</v>
+      </c>
+      <c r="U4" s="161">
         <v>3</v>
       </c>
-      <c r="V4" s="82">
+      <c r="V4" s="162">
         <f>U4*$R$4</f>
         <v>0.36666666666666664</v>
       </c>
-      <c r="W4" s="87">
+      <c r="W4" s="154">
         <v>0</v>
       </c>
       <c r="X4" s="82">
@@ -38512,7 +39085,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="145"/>
+      <c r="A5" s="144"/>
       <c r="B5" s="42" t="s">
         <v>14</v>
       </c>
@@ -38546,57 +39119,57 @@
         <v>0</v>
       </c>
       <c r="M5" s="70">
-        <f>SUM(C5:L5)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="N5" s="71">
-        <f>M5/$M$14</f>
+        <f t="shared" si="1"/>
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="O5" s="77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="80" t="str">
-        <f>IF(ISBLANK(B5),"",B5)</f>
+        <f t="shared" si="2"/>
         <v>Kosten</v>
       </c>
       <c r="R5">
-        <f t="shared" ref="R5:R13" si="0">N5</f>
+        <f t="shared" ref="R5:R13" si="3">N5</f>
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="S5" s="88">
         <v>3</v>
       </c>
-      <c r="T5" s="83">
-        <f t="shared" ref="T5:V13" si="1">S5*$R$4</f>
+      <c r="T5" s="149">
+        <f t="shared" ref="T5:V13" si="4">S5*$R$4</f>
         <v>0.36666666666666664</v>
       </c>
-      <c r="U5" s="88">
+      <c r="U5" s="163">
         <v>3</v>
       </c>
-      <c r="V5" s="83">
-        <f t="shared" si="1"/>
+      <c r="V5" s="164">
+        <f t="shared" si="4"/>
         <v>0.36666666666666664</v>
       </c>
-      <c r="W5" s="88">
-        <v>3</v>
+      <c r="W5" s="155">
+        <v>2</v>
       </c>
       <c r="X5" s="83">
-        <f t="shared" ref="X5:X13" si="2">W5*$R$4</f>
-        <v>0.36666666666666664</v>
+        <f t="shared" ref="X5:X13" si="5">W5*$R$4</f>
+        <v>0.24444444444444444</v>
       </c>
       <c r="Y5" s="88">
         <v>0</v>
       </c>
       <c r="Z5" s="83">
-        <f t="shared" ref="Z5:Z13" si="3">Y5*$R$4</f>
+        <f t="shared" ref="Z5:Z13" si="6">Y5*$R$4</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="145"/>
+      <c r="A6" s="144"/>
       <c r="B6" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="52">
         <f>IF(ISBLANK(E4),"",ABS(E4-2))</f>
@@ -38629,55 +39202,55 @@
         <v>0</v>
       </c>
       <c r="M6" s="72">
-        <f>SUM(C6:L6)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="N6" s="73">
-        <f>M6/$M$14</f>
+        <f t="shared" si="1"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="O6" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="80" t="str">
-        <f>IF(ISBLANK(B6),"",B6)</f>
+        <f t="shared" si="2"/>
         <v>Entwicklungsaufwand</v>
       </c>
       <c r="R6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="S6" s="88">
+        <v>1</v>
+      </c>
+      <c r="T6" s="149">
+        <f t="shared" si="4"/>
+        <v>0.12222222222222222</v>
+      </c>
+      <c r="U6" s="163">
         <v>2</v>
       </c>
-      <c r="T6" s="83">
-        <f t="shared" si="1"/>
+      <c r="V6" s="164">
+        <f t="shared" si="4"/>
         <v>0.24444444444444444</v>
       </c>
-      <c r="U6" s="88">
-        <v>2</v>
-      </c>
-      <c r="V6" s="83">
-        <f t="shared" si="1"/>
-        <v>0.24444444444444444</v>
-      </c>
-      <c r="W6" s="88">
+      <c r="W6" s="155">
         <v>1</v>
       </c>
       <c r="X6" s="83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.12222222222222222</v>
       </c>
       <c r="Y6" s="88">
         <v>0</v>
       </c>
       <c r="Z6" s="83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="145"/>
+      <c r="A7" s="144"/>
       <c r="B7" s="42" t="s">
         <v>15</v>
       </c>
@@ -38713,57 +39286,57 @@
         <v>0</v>
       </c>
       <c r="M7" s="70">
-        <f>SUM(C7:L7)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N7" s="71">
-        <f>M7/$M$14</f>
+        <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="O7" s="77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="80" t="str">
-        <f>IF(ISBLANK(B7),"",B7)</f>
+        <f t="shared" si="2"/>
         <v>Reichweite</v>
       </c>
       <c r="R7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="S7" s="88">
         <v>1</v>
       </c>
-      <c r="T7" s="83">
-        <f t="shared" si="1"/>
+      <c r="T7" s="149">
+        <f t="shared" si="4"/>
         <v>0.12222222222222222</v>
       </c>
-      <c r="U7" s="88">
+      <c r="U7" s="163">
         <v>2</v>
       </c>
-      <c r="V7" s="83">
-        <f t="shared" si="1"/>
+      <c r="V7" s="164">
+        <f t="shared" si="4"/>
         <v>0.24444444444444444</v>
       </c>
-      <c r="W7" s="88">
+      <c r="W7" s="155">
         <v>3</v>
       </c>
       <c r="X7" s="83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.36666666666666664</v>
       </c>
       <c r="Y7" s="88">
         <v>3</v>
       </c>
       <c r="Z7" s="83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.36666666666666664</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="145"/>
+      <c r="A8" s="144"/>
       <c r="B8" s="42" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C8" s="61">
         <f>IF(ISBLANK(G4),"",ABS(G4-2))</f>
@@ -38798,57 +39371,57 @@
         <v>0</v>
       </c>
       <c r="M8" s="72">
-        <f>SUM(C8:L8)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N8" s="73">
-        <f>M8/$M$14</f>
+        <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="O8" s="37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="80" t="str">
-        <f>IF(ISBLANK(B8),"",B8)</f>
-        <v>Nutzerfreundlichekit</v>
+        <f t="shared" si="2"/>
+        <v>Nutzerfreundlichkeit</v>
       </c>
       <c r="R8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="S8" s="88">
-        <v>2</v>
-      </c>
-      <c r="T8" s="83">
-        <f t="shared" si="1"/>
-        <v>0.24444444444444444</v>
-      </c>
-      <c r="U8" s="88">
+        <v>1</v>
+      </c>
+      <c r="T8" s="149">
+        <f t="shared" si="4"/>
+        <v>0.12222222222222222</v>
+      </c>
+      <c r="U8" s="163">
         <v>3</v>
       </c>
-      <c r="V8" s="83">
-        <f t="shared" si="1"/>
+      <c r="V8" s="164">
+        <f t="shared" si="4"/>
         <v>0.36666666666666664</v>
       </c>
-      <c r="W8" s="88">
+      <c r="W8" s="155">
         <v>0</v>
       </c>
       <c r="X8" s="83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y8" s="88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z8" s="83">
-        <f t="shared" si="3"/>
-        <v>0.12222222222222222</v>
+        <f t="shared" si="6"/>
+        <v>0.36666666666666664</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="145"/>
+      <c r="A9" s="144"/>
       <c r="B9" s="42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="52">
         <f>IF(ISBLANK(H4),"",ABS(H4-2))</f>
@@ -38884,57 +39457,57 @@
         <v>0</v>
       </c>
       <c r="M9" s="70">
-        <f>SUM(C9:L9)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="N9" s="71">
-        <f>M9/$M$14</f>
+        <f t="shared" si="1"/>
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="O9" s="77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="80" t="str">
-        <f>IF(ISBLANK(B9),"",B9)</f>
+        <f t="shared" si="2"/>
         <v>Energieverbrauch</v>
       </c>
       <c r="R9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="S9" s="88">
         <v>3</v>
       </c>
-      <c r="T9" s="83">
-        <f t="shared" si="1"/>
+      <c r="T9" s="149">
+        <f t="shared" si="4"/>
         <v>0.36666666666666664</v>
       </c>
-      <c r="U9" s="88">
+      <c r="U9" s="163">
+        <v>1</v>
+      </c>
+      <c r="V9" s="164">
+        <f t="shared" si="4"/>
+        <v>0.12222222222222222</v>
+      </c>
+      <c r="W9" s="155">
         <v>2</v>
       </c>
-      <c r="V9" s="83">
-        <f t="shared" si="1"/>
+      <c r="X9" s="83">
+        <f t="shared" si="5"/>
         <v>0.24444444444444444</v>
-      </c>
-      <c r="W9" s="88">
-        <v>3</v>
-      </c>
-      <c r="X9" s="83">
-        <f t="shared" si="2"/>
-        <v>0.36666666666666664</v>
       </c>
       <c r="Y9" s="88">
         <v>0</v>
       </c>
       <c r="Z9" s="83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="145"/>
+      <c r="A10" s="144"/>
       <c r="B10" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="52">
         <f>IF(ISBLANK(I4),"",ABS(I4-2))</f>
@@ -38971,57 +39544,57 @@
         <v>0</v>
       </c>
       <c r="M10" s="72">
-        <f>SUM(C10:L10)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="N10" s="73">
-        <f>M10/$M$14</f>
+        <f t="shared" si="1"/>
         <v>0.12222222222222222</v>
       </c>
       <c r="O10" s="37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="80" t="str">
-        <f>IF(ISBLANK(B10),"",B10)</f>
+        <f t="shared" si="2"/>
         <v>Störsicherheit</v>
       </c>
       <c r="R10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.12222222222222222</v>
       </c>
       <c r="S10" s="88">
         <v>1</v>
       </c>
-      <c r="T10" s="83">
-        <f t="shared" si="1"/>
+      <c r="T10" s="149">
+        <f t="shared" si="4"/>
         <v>0.12222222222222222</v>
       </c>
-      <c r="U10" s="88">
+      <c r="U10" s="163">
         <v>2</v>
       </c>
-      <c r="V10" s="83">
-        <f t="shared" si="1"/>
+      <c r="V10" s="164">
+        <f t="shared" si="4"/>
         <v>0.24444444444444444</v>
       </c>
-      <c r="W10" s="88">
-        <v>2</v>
+      <c r="W10" s="155">
+        <v>3</v>
       </c>
       <c r="X10" s="83">
-        <f t="shared" si="2"/>
-        <v>0.24444444444444444</v>
+        <f t="shared" si="5"/>
+        <v>0.36666666666666664</v>
       </c>
       <c r="Y10" s="88">
         <v>3</v>
       </c>
       <c r="Z10" s="83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.36666666666666664</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="145"/>
+      <c r="A11" s="144"/>
       <c r="B11" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="52">
         <f>IF(ISBLANK(J4),"",ABS(J4-2))</f>
@@ -39059,57 +39632,57 @@
         <v>0</v>
       </c>
       <c r="M11" s="70">
-        <f>SUM(C11:L11)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="71">
-        <f>M11/$M$14</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q11" s="80" t="str">
-        <f>IF(ISBLANK(B11),"",B11)</f>
-        <v>Bauraum</v>
-      </c>
-      <c r="R11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N11" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="80" t="str">
+        <f t="shared" si="2"/>
+        <v>Bauraum</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="S11" s="88">
         <v>3</v>
       </c>
-      <c r="T11" s="83">
-        <f t="shared" si="1"/>
+      <c r="T11" s="149">
+        <f t="shared" si="4"/>
         <v>0.36666666666666664</v>
       </c>
-      <c r="U11" s="88">
+      <c r="U11" s="163">
         <v>3</v>
       </c>
-      <c r="V11" s="83">
-        <f t="shared" si="1"/>
+      <c r="V11" s="164">
+        <f t="shared" si="4"/>
         <v>0.36666666666666664</v>
       </c>
-      <c r="W11" s="88">
-        <v>3</v>
+      <c r="W11" s="155">
+        <v>2</v>
       </c>
       <c r="X11" s="83">
-        <f t="shared" si="2"/>
-        <v>0.36666666666666664</v>
+        <f t="shared" si="5"/>
+        <v>0.24444444444444444</v>
       </c>
       <c r="Y11" s="88">
         <v>1</v>
       </c>
       <c r="Z11" s="83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.12222222222222222</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="145"/>
+      <c r="A12" s="144"/>
       <c r="B12" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="52">
         <f>IF(ISBLANK(K4),"",ABS(K4-2))</f>
@@ -39148,57 +39721,57 @@
         <v>0</v>
       </c>
       <c r="M12" s="70">
-        <f>SUM(C12:L12)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N12" s="71">
-        <f>M12/$M$14</f>
+        <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="O12" s="77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="80" t="str">
-        <f>IF(ISBLANK(B12),"",B12)</f>
+        <f t="shared" si="2"/>
         <v>Kompatibilität</v>
       </c>
       <c r="R12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="S12" s="88">
         <v>3</v>
       </c>
-      <c r="T12" s="83">
-        <f t="shared" si="1"/>
+      <c r="T12" s="149">
+        <f t="shared" si="4"/>
         <v>0.36666666666666664</v>
       </c>
-      <c r="U12" s="88">
+      <c r="U12" s="163">
         <v>3</v>
       </c>
-      <c r="V12" s="83">
-        <f t="shared" si="1"/>
+      <c r="V12" s="164">
+        <f t="shared" si="4"/>
         <v>0.36666666666666664</v>
       </c>
-      <c r="W12" s="88">
+      <c r="W12" s="155">
         <v>0</v>
       </c>
       <c r="X12" s="83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y12" s="88">
         <v>1</v>
       </c>
       <c r="Z12" s="83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.12222222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="145"/>
+      <c r="A13" s="144"/>
       <c r="B13" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="64">
         <f>IF(ISBLANK(L4),"",ABS(L4-2))</f>
@@ -39238,50 +39811,50 @@
       </c>
       <c r="L13" s="66"/>
       <c r="M13" s="74">
-        <f>SUM(C13:L13)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="N13" s="75">
-        <f>M13/$M$14</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="O13" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="81" t="str">
-        <f>IF(ISBLANK(B13),"",B13)</f>
+        <f t="shared" si="2"/>
         <v>Sicherheit</v>
       </c>
       <c r="R13" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="S13" s="89">
         <v>1</v>
       </c>
-      <c r="T13" s="84">
-        <f t="shared" si="1"/>
+      <c r="T13" s="150">
+        <f t="shared" si="4"/>
         <v>0.12222222222222222</v>
       </c>
-      <c r="U13" s="89">
+      <c r="U13" s="165">
         <v>2</v>
       </c>
-      <c r="V13" s="84">
-        <f t="shared" si="1"/>
+      <c r="V13" s="166">
+        <f t="shared" si="4"/>
         <v>0.24444444444444444</v>
       </c>
-      <c r="W13" s="89">
+      <c r="W13" s="156">
         <v>0</v>
       </c>
       <c r="X13" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y13" s="89">
         <v>3</v>
       </c>
       <c r="Z13" s="84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.36666666666666664</v>
       </c>
     </row>
@@ -39296,22 +39869,22 @@
       </c>
       <c r="S14" s="138">
         <f>SUM(T4:T13)</f>
-        <v>2.4444444444444442</v>
-      </c>
-      <c r="T14" s="139"/>
-      <c r="U14" s="138">
+        <v>2.322222222222222</v>
+      </c>
+      <c r="T14" s="151"/>
+      <c r="U14" s="167">
         <f>SUM(V4:V13)</f>
-        <v>3.0555555555555554</v>
-      </c>
-      <c r="V14" s="139"/>
-      <c r="W14" s="138">
+        <v>2.9333333333333331</v>
+      </c>
+      <c r="V14" s="168"/>
+      <c r="W14" s="151">
         <f>SUM(X4:X13)</f>
-        <v>1.8333333333333333</v>
+        <v>1.5888888888888888</v>
       </c>
       <c r="X14" s="139"/>
       <c r="Y14" s="138">
         <f>SUM(Z4:Z13)</f>
-        <v>1.8333333333333333</v>
+        <v>2.0777777777777775</v>
       </c>
       <c r="Z14" s="139"/>
     </row>
@@ -39320,15 +39893,15 @@
         <f>_xlfn.RANK.EQ(S14,S14:Z14,0)</f>
         <v>2</v>
       </c>
-      <c r="T15" s="141"/>
-      <c r="U15" s="140">
+      <c r="T15" s="152"/>
+      <c r="U15" s="169">
         <f>_xlfn.RANK.EQ(U14,S14:Z14,0)</f>
         <v>1</v>
       </c>
-      <c r="V15" s="141"/>
-      <c r="W15" s="140">
+      <c r="V15" s="170"/>
+      <c r="W15" s="152">
         <f>_xlfn.RANK.EQ(W14,S14:Z14,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X15" s="141"/>
       <c r="Y15" s="140">
@@ -39339,20 +39912,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:Z14"/>
     <mergeCell ref="A4:A13"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39360,26 +39933,1182 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0659BEC-439D-43F1-9C8A-0C2A89A08876}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P18" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="9" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="103" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:21" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="184">
+        <v>0</v>
+      </c>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="N2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="182" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="136" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="137"/>
+      <c r="T2" s="136" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="137"/>
+    </row>
+    <row r="3" spans="1:21" ht="112.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="175" t="str">
+        <f>IF(ISBLANK($B4),"",$B4)</f>
+        <v>Kosten</v>
+      </c>
+      <c r="D3" s="176" t="str">
+        <f>IF(ISBLANK($B5),"",$B5)</f>
+        <v>Entwicklungsaufwand</v>
+      </c>
+      <c r="E3" s="176" t="str">
+        <f>IF(ISBLANK($B6),"",$B6)</f>
+        <v>Bauraum</v>
+      </c>
+      <c r="F3" s="176" t="str">
+        <f>IF(ISBLANK($B7),"",$B7)</f>
+        <v>Energieverbrauch</v>
+      </c>
+      <c r="G3" s="177" t="str">
+        <f>IF(ISBLANK($B8),"",$B8)</f>
+        <v>Darstellung</v>
+      </c>
+      <c r="H3" s="176" t="str">
+        <f>IF(ISBLANK($B9),"",$B9)</f>
+        <v>Bedienbarkeit</v>
+      </c>
+      <c r="I3" s="176" t="str">
+        <f>IF(ISBLANK($B10),"",$B10)</f>
+        <v>Größe</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="171" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="144">
+        <v>2</v>
+      </c>
+      <c r="B4" s="178" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50">
+        <v>2</v>
+      </c>
+      <c r="E4" s="50">
+        <v>2</v>
+      </c>
+      <c r="F4" s="50">
+        <v>2</v>
+      </c>
+      <c r="G4" s="50">
+        <v>0</v>
+      </c>
+      <c r="H4" s="50">
+        <v>0</v>
+      </c>
+      <c r="I4" s="51">
+        <v>0</v>
+      </c>
+      <c r="J4" s="68">
+        <f>SUM(C4:I4)</f>
+        <v>6</v>
+      </c>
+      <c r="K4" s="69">
+        <f>J4/$J$11</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="79" t="str">
+        <f>IF(ISBLANK(B4),"",B4)</f>
+        <v>Kosten</v>
+      </c>
+      <c r="O4" s="172">
+        <f>K4</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="P4" s="87">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="82">
+        <f>P4*$O4</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="R4" s="87">
+        <v>2</v>
+      </c>
+      <c r="S4" s="82">
+        <f t="shared" ref="S4:S10" si="0">R4*$O4</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="T4" s="87">
+        <v>1</v>
+      </c>
+      <c r="U4" s="82">
+        <f t="shared" ref="U4:U10" si="1">T4*$O4</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="144"/>
+      <c r="B5" s="179" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="52">
+        <f>IF(ISBLANK(D4),"",ABS(D4-2))</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="53"/>
+      <c r="E5" s="54">
+        <v>0</v>
+      </c>
+      <c r="F5" s="55">
+        <v>0</v>
+      </c>
+      <c r="G5" s="55">
+        <v>0</v>
+      </c>
+      <c r="H5" s="55">
+        <v>0</v>
+      </c>
+      <c r="I5" s="56">
+        <v>0</v>
+      </c>
+      <c r="J5" s="70">
+        <f>SUM(C5:I5)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="71">
+        <f>J5/$J$11</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="80" t="str">
+        <f>IF(ISBLANK(B5),"",B5)</f>
+        <v>Entwicklungsaufwand</v>
+      </c>
+      <c r="O5" s="173">
+        <f t="shared" ref="O5:O10" si="2">K5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="88">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="83">
+        <f t="shared" ref="Q5:Q10" si="3">P5*$O5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="88">
+        <v>2</v>
+      </c>
+      <c r="S5" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="88">
+        <v>1</v>
+      </c>
+      <c r="U5" s="83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="144"/>
+      <c r="B6" s="179" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="52">
+        <f>IF(ISBLANK(E4),"",ABS(E4-2))</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="52">
+        <f>IF(ISBLANK(E5),"",ABS(E5-2))</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="57">
+        <v>2</v>
+      </c>
+      <c r="G6" s="58">
+        <v>0</v>
+      </c>
+      <c r="H6" s="58">
+        <v>0</v>
+      </c>
+      <c r="I6" s="59">
+        <v>0</v>
+      </c>
+      <c r="J6" s="72">
+        <f>SUM(C6:I6)</f>
+        <v>4</v>
+      </c>
+      <c r="K6" s="73">
+        <f>J6/$J$11</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="80" t="str">
+        <f>IF(ISBLANK(B6),"",B6)</f>
+        <v>Bauraum</v>
+      </c>
+      <c r="O6" s="173">
+        <f t="shared" si="2"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="P6" s="88">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="83">
+        <f t="shared" si="3"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="R6" s="88">
+        <v>3</v>
+      </c>
+      <c r="S6" s="83">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="T6" s="88">
+        <v>2</v>
+      </c>
+      <c r="U6" s="83">
+        <f t="shared" si="1"/>
+        <v>0.19047619047619047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="144"/>
+      <c r="B7" s="179" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="60">
+        <f>IF(ISBLANK(F4),"",ABS(F4-2))</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="60">
+        <f>IF(ISBLANK(F5),"",ABS(F5-2))</f>
+        <v>2</v>
+      </c>
+      <c r="E7" s="60">
+        <f>IF(ISBLANK(F6),"",ABS(F6-2))</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54">
+        <v>0</v>
+      </c>
+      <c r="H7" s="55">
+        <v>0</v>
+      </c>
+      <c r="I7" s="56">
+        <v>0</v>
+      </c>
+      <c r="J7" s="70">
+        <f>SUM(C7:I7)</f>
+        <v>2</v>
+      </c>
+      <c r="K7" s="71">
+        <f>J7/$J$11</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="L7" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="80" t="str">
+        <f>IF(ISBLANK(B7),"",B7)</f>
+        <v>Energieverbrauch</v>
+      </c>
+      <c r="O7" s="173">
+        <f t="shared" si="2"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="P7" s="88">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="83">
+        <f t="shared" si="3"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="R7" s="88">
+        <v>2</v>
+      </c>
+      <c r="S7" s="83">
+        <f t="shared" si="0"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="T7" s="88">
+        <v>1</v>
+      </c>
+      <c r="U7" s="83">
+        <f t="shared" si="1"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="144"/>
+      <c r="B8" s="179" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="61">
+        <f>IF(ISBLANK(G4),"",ABS(G4-2))</f>
+        <v>2</v>
+      </c>
+      <c r="D8" s="61">
+        <f>IF(ISBLANK(G5),"",ABS(G5-2))</f>
+        <v>2</v>
+      </c>
+      <c r="E8" s="61">
+        <f>IF(ISBLANK(G6),"",ABS(G6-2))</f>
+        <v>2</v>
+      </c>
+      <c r="F8" s="52">
+        <f>IF(ISBLANK(G7),"",ABS(G7-2))</f>
+        <v>2</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54">
+        <v>1</v>
+      </c>
+      <c r="I8" s="56">
+        <v>2</v>
+      </c>
+      <c r="J8" s="72">
+        <f>SUM(C8:I8)</f>
+        <v>11</v>
+      </c>
+      <c r="K8" s="73">
+        <f>J8/$J$11</f>
+        <v>0.26190476190476192</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="80" t="str">
+        <f>IF(ISBLANK(B8),"",B8)</f>
+        <v>Darstellung</v>
+      </c>
+      <c r="O8" s="173">
+        <f t="shared" si="2"/>
+        <v>0.26190476190476192</v>
+      </c>
+      <c r="P8" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="88">
+        <v>2</v>
+      </c>
+      <c r="S8" s="83">
+        <f t="shared" si="0"/>
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="T8" s="88">
+        <v>3</v>
+      </c>
+      <c r="U8" s="83">
+        <f t="shared" si="1"/>
+        <v>0.78571428571428581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="144"/>
+      <c r="B9" s="179" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="52">
+        <f>IF(ISBLANK(H4),"",ABS(H4-2))</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="52">
+        <f>IF(ISBLANK(H5),"",ABS(H5-2))</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="52">
+        <f>IF(ISBLANK(H6),"",ABS(H6-2))</f>
+        <v>2</v>
+      </c>
+      <c r="F9" s="52">
+        <f>IF(ISBLANK(H7),"",ABS(H7-2))</f>
+        <v>2</v>
+      </c>
+      <c r="G9" s="52">
+        <f>IF(ISBLANK(H8),"",ABS(H8-2))</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="53"/>
+      <c r="I9" s="180">
+        <v>2</v>
+      </c>
+      <c r="J9" s="70">
+        <f>SUM(C9:I9)</f>
+        <v>11</v>
+      </c>
+      <c r="K9" s="71">
+        <f>J9/$J$11</f>
+        <v>0.26190476190476192</v>
+      </c>
+      <c r="L9" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="80" t="str">
+        <f>IF(ISBLANK(B9),"",B9)</f>
+        <v>Bedienbarkeit</v>
+      </c>
+      <c r="O9" s="173">
+        <f t="shared" si="2"/>
+        <v>0.26190476190476192</v>
+      </c>
+      <c r="P9" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="88">
+        <v>2</v>
+      </c>
+      <c r="S9" s="83">
+        <f t="shared" si="0"/>
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="T9" s="88">
+        <v>3</v>
+      </c>
+      <c r="U9" s="83">
+        <f t="shared" si="1"/>
+        <v>0.78571428571428581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="144"/>
+      <c r="B10" s="181" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="64">
+        <f>IF(ISBLANK(I4),"",ABS(I4-2))</f>
+        <v>2</v>
+      </c>
+      <c r="D10" s="64">
+        <f>IF(ISBLANK(I5),"",ABS(I5-2))</f>
+        <v>2</v>
+      </c>
+      <c r="E10" s="64">
+        <f>IF(ISBLANK(I6),"",ABS(I6-2))</f>
+        <v>2</v>
+      </c>
+      <c r="F10" s="64">
+        <f>IF(ISBLANK(I7),"",ABS(I7-2))</f>
+        <v>2</v>
+      </c>
+      <c r="G10" s="64">
+        <f>IF(ISBLANK(I8),"",ABS(I8-2))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="64">
+        <f>IF(ISBLANK(I9),"",ABS(I9-2))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="66"/>
+      <c r="J10" s="72">
+        <f>SUM(C10:I10)</f>
+        <v>8</v>
+      </c>
+      <c r="K10" s="73">
+        <f>J10/$J$11</f>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="81" t="str">
+        <f>IF(ISBLANK(B10),"",B10)</f>
+        <v>Größe</v>
+      </c>
+      <c r="O10" s="174">
+        <f t="shared" si="2"/>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="P10" s="88">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="83">
+        <f t="shared" si="3"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="R10" s="88">
+        <v>1</v>
+      </c>
+      <c r="S10" s="83">
+        <f t="shared" si="0"/>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="T10" s="88">
+        <v>3</v>
+      </c>
+      <c r="U10" s="83">
+        <f t="shared" si="1"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="48">
+        <f>SUM(J4:J10)</f>
+        <v>42</v>
+      </c>
+      <c r="K11" s="35">
+        <f>SUM(K4:K10)</f>
+        <v>1</v>
+      </c>
+      <c r="P11" s="138">
+        <f>SUM(Q4:Q10)</f>
+        <v>1.4285714285714284</v>
+      </c>
+      <c r="Q11" s="139"/>
+      <c r="R11" s="138">
+        <f>SUM(S4:S10)</f>
+        <v>1.9047619047619049</v>
+      </c>
+      <c r="S11" s="139"/>
+      <c r="T11" s="138">
+        <f>SUM(U4:U10)</f>
+        <v>2.5238095238095237</v>
+      </c>
+      <c r="U11" s="139"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P12" s="140">
+        <f>_xlfn.RANK.EQ(P11,P11:U11,0)</f>
+        <v>3</v>
+      </c>
+      <c r="Q12" s="141"/>
+      <c r="R12" s="140">
+        <f>_xlfn.RANK.EQ(R11,P11:U11,0)</f>
+        <v>2</v>
+      </c>
+      <c r="S12" s="141"/>
+      <c r="T12" s="140">
+        <f>_xlfn.RANK.EQ(T11,P11:U11,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U12" s="141"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="A4:A10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0019081-1A11-491A-BAE6-A5EA6D2825DD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="8" width="9.28515625" customWidth="1"/>
+    <col min="11" max="11" width="103" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:20" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="184">
+        <v>0</v>
+      </c>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="M2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="182" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="136" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="137"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="137"/>
+    </row>
+    <row r="3" spans="1:20" ht="112.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="175" t="str">
+        <f>IF(ISBLANK($B4),"",$B4)</f>
+        <v>Kosten</v>
+      </c>
+      <c r="D3" s="176" t="str">
+        <f>IF(ISBLANK($B5),"",$B5)</f>
+        <v>Entwicklungsaufwand</v>
+      </c>
+      <c r="E3" s="176" t="str">
+        <f>IF(ISBLANK($B6),"",$B6)</f>
+        <v>Kompatibilität</v>
+      </c>
+      <c r="F3" s="176" t="str">
+        <f>IF(ISBLANK($B7),"",$B7)</f>
+        <v>Energieverbrauch</v>
+      </c>
+      <c r="G3" s="177" t="str">
+        <f>IF(ISBLANK($B8),"",$B8)</f>
+        <v>Bauraum</v>
+      </c>
+      <c r="H3" s="176" t="str">
+        <f>IF(ISBLANK($B9),"",$B9)</f>
+        <v>Verschlüsselung</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="171" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="144">
+        <v>2</v>
+      </c>
+      <c r="B4" s="178" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50">
+        <v>2</v>
+      </c>
+      <c r="E4" s="50">
+        <v>0</v>
+      </c>
+      <c r="F4" s="50">
+        <v>2</v>
+      </c>
+      <c r="G4" s="50">
+        <v>2</v>
+      </c>
+      <c r="H4" s="50">
+        <v>0</v>
+      </c>
+      <c r="I4" s="68">
+        <f>SUM(C4:H4)</f>
+        <v>6</v>
+      </c>
+      <c r="J4" s="69">
+        <f>I4/$I$10</f>
+        <v>0.2</v>
+      </c>
+      <c r="K4" s="36"/>
+      <c r="M4" s="79" t="str">
+        <f>IF(ISBLANK(B4),"",B4)</f>
+        <v>Kosten</v>
+      </c>
+      <c r="N4" s="172">
+        <f>J4</f>
+        <v>0.2</v>
+      </c>
+      <c r="O4" s="87">
+        <v>0</v>
+      </c>
+      <c r="P4" s="82">
+        <f>O4*$N4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="87">
+        <v>3</v>
+      </c>
+      <c r="R4" s="82">
+        <f>Q4*$N4</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="S4" s="87"/>
+      <c r="T4" s="82">
+        <f>S4*$N4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="144"/>
+      <c r="B5" s="179" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="52">
+        <f>IF(ISBLANK(D4),"",ABS(D4-2))</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="53"/>
+      <c r="E5" s="54">
+        <v>0</v>
+      </c>
+      <c r="F5" s="55">
+        <v>0</v>
+      </c>
+      <c r="G5" s="55">
+        <v>0</v>
+      </c>
+      <c r="H5" s="55">
+        <v>0</v>
+      </c>
+      <c r="I5" s="70">
+        <f>SUM(C5:H5)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="71">
+        <f>I5/$I$10</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="77"/>
+      <c r="M5" s="80" t="str">
+        <f>IF(ISBLANK(B5),"",B5)</f>
+        <v>Entwicklungsaufwand</v>
+      </c>
+      <c r="N5" s="173">
+        <f t="shared" ref="N5:N9" si="0">J5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="88">
+        <v>3</v>
+      </c>
+      <c r="P5" s="83">
+        <f>O5*$N5</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="88">
+        <v>1</v>
+      </c>
+      <c r="R5" s="83">
+        <f>Q5*$N5</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="88"/>
+      <c r="T5" s="83">
+        <f>S5*$N5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="144"/>
+      <c r="B6" s="179" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="52">
+        <f>IF(ISBLANK(E4),"",ABS(E4-2))</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="52">
+        <f>IF(ISBLANK(E5),"",ABS(E5-2))</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="57">
+        <v>2</v>
+      </c>
+      <c r="G6" s="58">
+        <v>2</v>
+      </c>
+      <c r="H6" s="58">
+        <v>1</v>
+      </c>
+      <c r="I6" s="72">
+        <f>SUM(C6:H6)</f>
+        <v>9</v>
+      </c>
+      <c r="J6" s="73">
+        <f>I6/$I$10</f>
+        <v>0.3</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="80" t="str">
+        <f>IF(ISBLANK(B6),"",B6)</f>
+        <v>Kompatibilität</v>
+      </c>
+      <c r="N6" s="173">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="O6" s="88">
+        <v>3</v>
+      </c>
+      <c r="P6" s="83">
+        <f>O6*$N6</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="Q6" s="88">
+        <v>0</v>
+      </c>
+      <c r="R6" s="83">
+        <f>Q6*$N6</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="88"/>
+      <c r="T6" s="83">
+        <f>S6*$N6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="144"/>
+      <c r="B7" s="179" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="60">
+        <f>IF(ISBLANK(F4),"",ABS(F4-2))</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="60">
+        <f>IF(ISBLANK(F5),"",ABS(F5-2))</f>
+        <v>2</v>
+      </c>
+      <c r="E7" s="60">
+        <f>IF(ISBLANK(F6),"",ABS(F6-2))</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54">
+        <v>1</v>
+      </c>
+      <c r="H7" s="55">
+        <v>0</v>
+      </c>
+      <c r="I7" s="70">
+        <f>SUM(C7:H7)</f>
+        <v>3</v>
+      </c>
+      <c r="J7" s="71">
+        <f>I7/$I$10</f>
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="77"/>
+      <c r="M7" s="80" t="str">
+        <f>IF(ISBLANK(B7),"",B7)</f>
+        <v>Energieverbrauch</v>
+      </c>
+      <c r="N7" s="173">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="O7" s="88">
+        <v>1</v>
+      </c>
+      <c r="P7" s="83">
+        <f>O7*$N7</f>
+        <v>0.1</v>
+      </c>
+      <c r="Q7" s="88">
+        <v>3</v>
+      </c>
+      <c r="R7" s="83">
+        <f>Q7*$N7</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="S7" s="88"/>
+      <c r="T7" s="83">
+        <f>S7*$N7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="144"/>
+      <c r="B8" s="179" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="61">
+        <f>IF(ISBLANK(G4),"",ABS(G4-2))</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="61">
+        <f>IF(ISBLANK(G5),"",ABS(G5-2))</f>
+        <v>2</v>
+      </c>
+      <c r="E8" s="61">
+        <f>IF(ISBLANK(G6),"",ABS(G6-2))</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="52">
+        <f>IF(ISBLANK(G7),"",ABS(G7-2))</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54">
+        <v>0</v>
+      </c>
+      <c r="I8" s="72">
+        <f>SUM(C8:H8)</f>
+        <v>3</v>
+      </c>
+      <c r="J8" s="73">
+        <f>I8/$I$10</f>
+        <v>0.1</v>
+      </c>
+      <c r="K8" s="37"/>
+      <c r="M8" s="80" t="str">
+        <f>IF(ISBLANK(B8),"",B8)</f>
+        <v>Bauraum</v>
+      </c>
+      <c r="N8" s="173">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="O8" s="88">
+        <v>1</v>
+      </c>
+      <c r="P8" s="83">
+        <f>O8*$N8</f>
+        <v>0.1</v>
+      </c>
+      <c r="Q8" s="88">
+        <v>3</v>
+      </c>
+      <c r="R8" s="83">
+        <f>Q8*$N8</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="S8" s="88"/>
+      <c r="T8" s="83">
+        <f>S8*$N8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="144"/>
+      <c r="B9" s="181" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="64">
+        <f>IF(ISBLANK(H4),"",ABS(H4-2))</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="64">
+        <f>IF(ISBLANK(H5),"",ABS(H5-2))</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="64">
+        <f>IF(ISBLANK(H6),"",ABS(H6-2))</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="64">
+        <f>IF(ISBLANK(H7),"",ABS(H7-2))</f>
+        <v>2</v>
+      </c>
+      <c r="G9" s="64">
+        <f>IF(ISBLANK(H8),"",ABS(H8-2))</f>
+        <v>2</v>
+      </c>
+      <c r="H9" s="187"/>
+      <c r="I9" s="188">
+        <f>SUM(C9:H9)</f>
+        <v>9</v>
+      </c>
+      <c r="J9" s="189">
+        <f>I9/$I$10</f>
+        <v>0.3</v>
+      </c>
+      <c r="K9" s="190"/>
+      <c r="M9" s="81" t="str">
+        <f>IF(ISBLANK(B9),"",B9)</f>
+        <v>Verschlüsselung</v>
+      </c>
+      <c r="N9" s="174">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="O9" s="89">
+        <v>3</v>
+      </c>
+      <c r="P9" s="84">
+        <f>O9*$N9</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="Q9" s="89">
+        <v>0</v>
+      </c>
+      <c r="R9" s="84">
+        <f>Q9*$N9</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="89"/>
+      <c r="T9" s="84">
+        <f>S9*$N9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="185">
+        <f>SUM(I4:I9)</f>
+        <v>30</v>
+      </c>
+      <c r="J10" s="186">
+        <f>SUM(J4:J9)</f>
+        <v>1</v>
+      </c>
+      <c r="O10" s="191">
+        <f>SUM(P4:P9)</f>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="P10" s="192"/>
+      <c r="Q10" s="191">
+        <f>SUM(R4:R9)</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="R10" s="192"/>
+      <c r="S10" s="191">
+        <f>SUM(T4:T9)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="192"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O11" s="140">
+        <f>_xlfn.RANK.EQ(O10,O10:T10,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P11" s="141"/>
+      <c r="Q11" s="140">
+        <f>_xlfn.RANK.EQ(Q10,O10:T10,0)</f>
+        <v>2</v>
+      </c>
+      <c r="R11" s="141"/>
+      <c r="S11" s="140">
+        <f>_xlfn.RANK.EQ(S10,O10:T10,0)</f>
+        <v>3</v>
+      </c>
+      <c r="T11" s="141"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>